--- a/r5-ELGA-MOPED-194-MOPED-Profil-für-Condition-und-Procedure-erstellen/StructureDefinition-MOPEDProcedure.xlsx
+++ b/r5-ELGA-MOPED-194-MOPED-Profil-für-Condition-und-Procedure-erstellen/StructureDefinition-MOPEDProcedure.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T10:48:10+00:00</t>
+    <t>2024-10-24T11:49:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1198,7 +1198,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDTransferEncounter)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDEncounter)
 </t>
   </si>
   <si>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
